--- a/legislator/property/output/normal/簡東明_2011-12-30_財產申報表_tmp3d8a1.xlsx
+++ b/legislator/property/output/normal/簡東明_2011-12-30_財產申報表_tmp3d8a1.xlsx
@@ -19,9 +19,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="127">
-  <si>
-    <t>土地.坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="137">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市水源段二小段08080004地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市水源段二小段08200004地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉草埔段10950000地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉草埔段10950001地諕</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉草埔段09570000地號*</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉草埔段01460000地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉草埔段09570002地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉草埔段09570003地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉丹路段00090000地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉草埔段08430000地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉草埔段05940000地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子郷草埔段09560000地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉草埔段10260000地號</t>
+  </si>
+  <si>
+    <t>東縣獅子鄉新路段02730000地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉楓林段06140001</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉楓标段06140000地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉新g段03880001地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市勝興段01020003地號</t>
+  </si>
+  <si>
+    <t>10.20</t>
+  </si>
+  <si>
+    <t>2920</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>3分之1</t>
+  </si>
+  <si>
+    <t>簡東明</t>
+  </si>
+  <si>
+    <t>簡東</t>
+  </si>
+  <si>
+    <t>戴錦花</t>
+  </si>
+  <si>
+    <t>69年12月01日</t>
+  </si>
+  <si>
+    <t>87年12月14日</t>
+  </si>
+  <si>
+    <t>87年10月05日</t>
+  </si>
+  <si>
+    <t>87年09月25日</t>
+  </si>
+  <si>
+    <t>89年01月13日</t>
+  </si>
+  <si>
+    <t>89年09月26日</t>
+  </si>
+  <si>
+    <t>89年10月13日</t>
+  </si>
+  <si>
+    <t>91年12月16日</t>
+  </si>
+  <si>
+    <t>90年08月23日</t>
+  </si>
+  <si>
+    <t>80年04月19日</t>
+  </si>
+  <si>
+    <t>90年12月25日</t>
+  </si>
+  <si>
+    <t>(買賣轉移）</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>地上權期間屆滿</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超過五年)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-30</t>
+  </si>
+  <si>
+    <t>tmp3d8a1</t>
+  </si>
+  <si>
+    <t>建物禪示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -39,205 +225,49 @@
     <t>登記（取得）原因</t>
   </si>
   <si>
+    <t>取.得價額</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市水源段01004000建號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市勝興段06888000建號</t>
+  </si>
+  <si>
+    <t>(買賣所有權轉移）</t>
+  </si>
+  <si>
+    <t>(購買）</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
+  </si>
+  <si>
     <t>取得價額</t>
   </si>
   <si>
-    <t>屏東縣屏東市水源段二小段 0808-0004 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市水源段二小段 0820-0004 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉草埔段1095-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅'子鄉草埔段1095-0001 地諕</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉草埔段0957-0000 地號*</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉草埔段0146-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉草埔段0957-0002 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉草埔段0957-0003 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉丹路段0009-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉草埔段0843-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉草埔段0594-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子郷草埔段0956-0000 地號 '</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉草埔段1026-0000 地號</t>
-  </si>
-  <si>
-    <t>_東縣獅子鄉新路段0273-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉楓林段0614-0001</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉楓标段0614-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉新g段0388-0001 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市勝興段0102-0003 地號</t>
-  </si>
-  <si>
-    <t>1,0.20</t>
-  </si>
-  <si>
-    <t>2,920,</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>•全部</t>
-  </si>
-  <si>
-    <t>3分之1</t>
-  </si>
-  <si>
-    <t>簡東明</t>
-  </si>
-  <si>
-    <t>簡東_</t>
-  </si>
-  <si>
-    <t>戴錦花</t>
-  </si>
-  <si>
-    <t>69年12月 01日 ,</t>
-  </si>
-  <si>
-    <t>69年12月 01日</t>
-  </si>
-  <si>
-    <t>87年12月 14日</t>
-  </si>
-  <si>
-    <t>87年10月 05日</t>
-  </si>
-  <si>
-    <t>87年09月 25日</t>
-  </si>
-  <si>
-    <t>87年10月 05,日</t>
-  </si>
-  <si>
-    <t>89年01月 13日</t>
-  </si>
-  <si>
-    <t>89年09月 26日</t>
-  </si>
-  <si>
-    <t>89年10月 13日</t>
-  </si>
-  <si>
-    <t>91年12月 16日</t>
-  </si>
-  <si>
-    <t>’90年08月</t>
-  </si>
-  <si>
-    <t>90年08月 23日</t>
-  </si>
-  <si>
-    <t>80年,04月 19日</t>
-  </si>
-  <si>
-    <t>90年12月 25日</t>
-  </si>
-  <si>
-    <t>(買賣轉 移）</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>(地’上櫂 屆滿）</t>
-  </si>
-  <si>
-    <t>地上權期</t>
-  </si>
-  <si>
-    <t>地上權期 間屆滿</t>
-  </si>
-  <si>
-    <t>共有物分 割</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超過五年）.</t>
-  </si>
-  <si>
-    <t>(超過五年)•</t>
-  </si>
-  <si>
-    <t>建物禪示</t>
-  </si>
-  <si>
-    <t>取.得價額</t>
-  </si>
-  <si>
-    <t>屏東縣屏東_市水源段01004-000 建號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市勝興段06888-000 建號</t>
-  </si>
-  <si>
-    <t>(買賣所 有權轉 移）</t>
-  </si>
-  <si>
-    <t>(購買）</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>Toyota-camry</t>
-  </si>
-  <si>
-    <t>Mazda-j14-dna</t>
-  </si>
-  <si>
-    <t>_東明</t>
-  </si>
-  <si>
-    <t>94年11月 01日</t>
-  </si>
-  <si>
-    <t>100 年 08 月20曰</t>
-  </si>
-  <si>
-    <t>93年09月 15日</t>
+    <t>Toyotacamry</t>
+  </si>
+  <si>
+    <t>Mazdaj14dna</t>
+  </si>
+  <si>
+    <t>東明</t>
+  </si>
+  <si>
+    <t>94年11月01日</t>
+  </si>
+  <si>
+    <t>100年08月20曰</t>
+  </si>
+  <si>
+    <t>93年09月15日</t>
   </si>
   <si>
     <t>(自用）</t>
@@ -246,10 +276,10 @@
     <t>(寧用）</t>
   </si>
   <si>
-    <t>1”000，000(超 過五年）</t>
-  </si>
-  <si>
-    <t>1,050,000(超 過五年）</t>
+    <t>1”000000(超過五年）</t>
+  </si>
+  <si>
+    <t>1050000(超過五年）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -306,7 +336,7 @@
     <t>台灣人壽</t>
   </si>
   <si>
-    <t>大都會國際人, 壽</t>
+    <t>大都會國際人壽</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -315,7 +345,7 @@
     <t>幸福人壽</t>
   </si>
   <si>
-    <t>新康祥终身壽_c</t>
+    <t>新康祥终身壽c</t>
   </si>
   <si>
     <t>財星高照變額萬能壽險</t>
@@ -336,25 +366,25 @@
     <t>大吉大利终身壽險</t>
   </si>
   <si>
-    <t>保險期間：8 9年1 2T月2 0 曰至10 9年12月2 0曰 (20年期）保險費缴付方 式及金額：年缴4 3,0 0 0 元</t>
-  </si>
-  <si>
-    <t>保險期間：9 9年1 2月1、5 日至1 0 9年1 2月1 5日 (10年期）诨險費繳付方 式及金額：年缴3 4 ,0 0 0 元</t>
-  </si>
-  <si>
-    <t>保險期間：9 8年12月10 日至10 5年1 2月10日 (7年期）保險費繳付方式 及金額：年繳1 0 0 , 5 6 1 元</t>
-  </si>
-  <si>
-    <t>保險期間：9 0年8月2 3日 至100年8月23日（10 年期）保險費繳付方式及金 額：年繳1 1 2，9 0 0元</t>
-  </si>
-  <si>
-    <t>保險期間：80年1月24日 至10 0年1月24曰（20 年期）保險費缴付方式及金 額：月繳4,8 2 9元</t>
-  </si>
-  <si>
-    <t>保險期間：92年3月19曰 至110年3月19日保險 費繳付方式及金額：年繳2 4 6,0 0 0 元</t>
-  </si>
-  <si>
-    <t>保險期間：9 8年1 1月1 7™ 日至10 4年1 1月17曰 (6年期）保險費繳付方式 及金額：年繳1 1 1 , 8 4 0 元</t>
+    <t>保險期間：89年12T月20曰至109年12月20曰(20年期）保險費缴付方式及金額：年缴43000元</t>
+  </si>
+  <si>
+    <t>保險期間：99年12月15日至109年12月15日(10年期）诨險費繳付方式及金額：年缴34000元</t>
+  </si>
+  <si>
+    <t>保險期間：98年12月10日至105年12月10日(7年期）保險費繳付方式及金額：年繳100561元</t>
+  </si>
+  <si>
+    <t>保險期間：90年8月23日至100年8月23日（10年期）保險費繳付方式及金額：年繳112900元</t>
+  </si>
+  <si>
+    <t>保險期間：80年1月24日至100年1月24曰（20年期）保險費缴付方式及金額：月繳4829元</t>
+  </si>
+  <si>
+    <t>保險期間：92年3月19曰至110年3月19日保險費繳付方式及金額：年繳246000元</t>
+  </si>
+  <si>
+    <t>保險期間：98年11月17™日至104年11月17曰(6年期）保險費繳付方式及金額：年繳111840元</t>
   </si>
   <si>
     <t>債務人</t>
@@ -375,13 +405,13 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>投 資</t>
+    <t>投資</t>
   </si>
   <si>
     <t>人</t>
   </si>
   <si>
-    <t>永豐銀行 屏東縣屏東市復興北路</t>
+    <t>永豐銀行屏東縣屏東市復興北路</t>
   </si>
   <si>
     <t>投資事業名稱</t>
@@ -390,16 +420,16 @@
     <t>投資事業地址</t>
   </si>
   <si>
-    <t>92年07月 01日</t>
-  </si>
-  <si>
-    <t>y 投資金額</t>
+    <t>92年07月01日</t>
+  </si>
+  <si>
+    <t>y投資金額</t>
   </si>
   <si>
     <t>購屋</t>
   </si>
   <si>
-    <t>取得（發生） 時 .間</t>
+    <t>取得（發生）時.間</t>
   </si>
 </sst>
 </file>
@@ -758,13 +788,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,473 +816,872 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>510</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>1836</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>571</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>2973</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>2740</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>36330</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>600</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>30406</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>18094</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>6900</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" s="2">
         <v>27</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>50169</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>128491</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>390</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="2">
         <v>32</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>108</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1270,25 +1699,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1296,22 +1725,22 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2">
         <v>88.14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H2" s="2">
         <v>680000</v>
@@ -1322,22 +1751,22 @@
         <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2">
         <v>221.46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H3" s="2">
         <v>750000</v>
@@ -1358,22 +1787,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1381,22 +1810,22 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2">
         <v>3000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1404,19 +1833,19 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2">
         <v>2362</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2">
         <v>1030000</v>
@@ -1427,22 +1856,22 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2">
         <v>2967</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1460,19 +1889,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1480,16 +1909,16 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2">
         <v>3343430</v>
@@ -1500,16 +1929,16 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2">
         <v>896597</v>
@@ -1520,16 +1949,16 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2">
         <v>334231</v>
@@ -1540,16 +1969,16 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2">
         <v>287527</v>
@@ -1560,16 +1989,16 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2">
         <v>4200</v>
@@ -1590,16 +2019,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1607,16 +2036,16 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1624,16 +2053,16 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1641,16 +2070,16 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1658,16 +2087,16 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1675,16 +2104,16 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1692,16 +2121,16 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1709,16 +2138,16 @@
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1736,22 +2165,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1759,22 +2188,22 @@
         <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2">
         <v>1120295</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1782,22 +2211,22 @@
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/簡東明_2011-12-30_財產申報表_tmp3d8a1.xlsx
+++ b/legislator/property/output/normal/簡東明_2011-12-30_財產申報表_tmp3d8a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>屏東縣屏東市水源段二小段08080004地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>屏東縣屏東市水源段二小段08200004地號</t>
@@ -72,7 +75,7 @@
     <t>屏東縣獅子鄉草埔段10950000地號</t>
   </si>
   <si>
-    <t>屏東縣獅子鄉草埔段10950001地諕</t>
+    <t>屏東縣獅子鄉草埔段10950001地號</t>
   </si>
   <si>
     <t>屏東縣獅子鄉草埔段09570000地號*</t>
@@ -102,10 +105,10 @@
     <t>屏東縣獅子鄉草埔段10260000地號</t>
   </si>
   <si>
-    <t>東縣獅子鄉新路段02730000地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉楓林段06140001</t>
+    <t>屏東縣獅子鄉新路段02730000地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉楓林段06140001地號</t>
   </si>
   <si>
     <t>屏東縣獅子鄉楓标段06140000地號</t>
@@ -117,12 +120,6 @@
     <t>屏東縣屏東市勝興段01020003地號</t>
   </si>
   <si>
-    <t>10.20</t>
-  </si>
-  <si>
-    <t>2920</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>簡東明</t>
   </si>
   <si>
-    <t>簡東</t>
-  </si>
-  <si>
     <t>戴錦花</t>
   </si>
   <si>
@@ -207,96 +201,57 @@
     <t>tmp3d8a1</t>
   </si>
   <si>
-    <t>建物禪示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取.得價額</t>
-  </si>
-  <si>
     <t>屏東縣屏東市水源段01004000建號</t>
   </si>
   <si>
+    <t>(買賣所有權轉移）</t>
+  </si>
+  <si>
     <t>屏東縣屏東市勝興段06888000建號</t>
   </si>
   <si>
-    <t>(買賣所有權轉移）</t>
-  </si>
-  <si>
     <t>(購買）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>Toyotacamry</t>
   </si>
   <si>
+    <t>東明</t>
+  </si>
+  <si>
+    <t>94年11月01日</t>
+  </si>
+  <si>
+    <t>(自用）</t>
+  </si>
+  <si>
+    <t>1”000000(超過五年）</t>
+  </si>
+  <si>
     <t>Mazdaj14dna</t>
   </si>
   <si>
-    <t>東明</t>
-  </si>
-  <si>
-    <t>94年11月01日</t>
-  </si>
-  <si>
     <t>100年08月20曰</t>
   </si>
   <si>
     <t>93年09月15日</t>
   </si>
   <si>
-    <t>(自用）</t>
-  </si>
-  <si>
     <t>(寧用）</t>
   </si>
   <si>
-    <t>1”000000(超過五年）</t>
-  </si>
-  <si>
     <t>1050000(超過五年）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣新光商業銀行</t>
   </si>
   <si>
@@ -309,30 +264,18 @@
     <t>中華郵政股份有限公司</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>活崩存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>新康祥终身壽c</t>
+  </si>
+  <si>
+    <t>保險期間：89年12T月20曰至109年12月20曰(20年期）保險費缴付方式及金額：年缴43000元</t>
+  </si>
+  <si>
     <t>台灣人壽</t>
   </si>
   <si>
@@ -345,9 +288,6 @@
     <t>幸福人壽</t>
   </si>
   <si>
-    <t>新康祥终身壽c</t>
-  </si>
-  <si>
     <t>財星高照變額萬能壽險</t>
   </si>
   <si>
@@ -366,9 +306,6 @@
     <t>大吉大利终身壽險</t>
   </si>
   <si>
-    <t>保險期間：89年12T月20曰至109年12月20曰(20年期）保險費缴付方式及金額：年缴43000元</t>
-  </si>
-  <si>
     <t>保險期間：99年12月15日至109年12月15日(10年期）诨險費繳付方式及金額：年缴34000元</t>
   </si>
   <si>
@@ -387,46 +324,31 @@
     <t>保險期間：98年11月17™日至104年11月17曰(6年期）保險費繳付方式及金額：年繳111840元</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取1得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>永豐銀行屏東縣屏東市復興北路</t>
+  </si>
+  <si>
+    <t>92年07月01日</t>
+  </si>
+  <si>
+    <t>購屋</t>
+  </si>
+  <si>
     <t>投資</t>
   </si>
   <si>
     <t>人</t>
   </si>
   <si>
-    <t>永豐銀行屏東縣屏東市復興北路</t>
-  </si>
-  <si>
     <t>投資事業名稱</t>
   </si>
   <si>
     <t>投資事業地址</t>
   </si>
   <si>
-    <t>92年07月01日</t>
-  </si>
-  <si>
     <t>y投資金額</t>
-  </si>
-  <si>
-    <t>購屋</t>
   </si>
   <si>
     <t>取得（發生）時.間</t>
@@ -788,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,851 +759,912 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M2" s="2">
         <v>1717</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>1020</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M3" s="2">
         <v>1717</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>510</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M4" s="2">
         <v>1717</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>510</v>
+        <v>1836</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M5" s="2">
         <v>1717</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1836</v>
+        <v>2920</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M6" s="2">
         <v>1717</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>571</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="2">
         <v>1717</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>571</v>
+        <v>2973</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" s="2">
         <v>1717</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>2973</v>
+        <v>2740</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" s="2">
         <v>1717</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>2740</v>
+        <v>36330</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10" s="2">
         <v>1717</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>36330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>36330</v>
+        <v>600</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="2">
         <v>1717</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>600</v>
+        <v>30406</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M12" s="2">
         <v>1717</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>30406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>30406</v>
+        <v>18094</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M13" s="2">
         <v>1717</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>18094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>18094</v>
+        <v>6900</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M14" s="2">
         <v>1717</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>6900</v>
+        <v>50169</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="2">
         <v>1717</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>16723</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>50169</v>
+        <v>128491</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M16" s="2">
         <v>1717</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>42830.3333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" s="2">
-        <v>128491</v>
+        <v>390</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M17" s="2">
         <v>1717</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O17" s="2">
+        <v>30</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="2">
-        <v>390</v>
+        <v>108</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M18" s="2">
         <v>1717</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2">
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
         <v>108</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1717</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O19" s="2">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1691,7 +1674,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1699,76 +1682,50 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="C1" s="1">
+        <v>88.14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="H1" s="1">
+        <v>680000</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2">
-        <v>88.14</v>
+        <v>221.46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2">
-        <v>680000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="2">
-        <v>221.46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="2">
         <v>750000</v>
       </c>
     </row>
@@ -1778,384 +1735,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2362</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1030000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2967</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>64</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3343430</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>65</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="2">
-        <v>896597</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>67</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="2">
-        <v>334231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>68</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="2">
-        <v>287527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>69</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>98</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>99</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>101</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>102</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>103</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>104</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>105</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -2165,68 +1744,363 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>64</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3000</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2362</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1120295</v>
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>135</v>
+        <v>72</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1030000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>69</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2967</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1">
+        <v>3343430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2">
+        <v>896597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>136</v>
+        <v>35</v>
+      </c>
+      <c r="F3" s="2">
+        <v>334231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2">
+        <v>287527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>101</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>102</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>103</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1120295</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/簡東明_2011-12-30_財產申報表_tmp3d8a1.xlsx
+++ b/legislator/property/output/normal/簡東明_2011-12-30_財產申報表_tmp3d8a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>屏東縣屏東市水源段二小段08080004地號</t>
+  </si>
+  <si>
     <t>屏東縣屏東市水源段二小段08200004地號</t>
   </si>
   <si>
@@ -204,10 +207,10 @@
     <t>屏東縣屏東市水源段01004000建號</t>
   </si>
   <si>
+    <t>屏東縣屏東市勝興段06888000建號</t>
+  </si>
+  <si>
     <t>(買賣所有權轉移）</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市勝興段06888000建號</t>
   </si>
   <si>
     <t>(購買）</t>
@@ -710,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -768,72 +771,72 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" s="2">
         <v>1717</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1020</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>38</v>
@@ -842,104 +845,104 @@
         <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" s="2">
         <v>1717</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>1020</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>510</v>
+        <v>1020</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="2">
         <v>1717</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>510</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1836</v>
+        <v>510</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>40</v>
@@ -948,104 +951,104 @@
         <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" s="2">
         <v>1717</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>1836</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>2920</v>
+        <v>1836</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="2">
         <v>1717</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>2920</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>571</v>
+        <v>2920</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>40</v>
@@ -1054,366 +1057,366 @@
         <v>50</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="2">
         <v>1717</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
-        <v>571</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>2973</v>
+        <v>571</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" s="2">
         <v>1717</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>2973</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>2740</v>
+        <v>2973</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" s="2">
         <v>1717</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>2740</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>36330</v>
+        <v>2740</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" s="2">
         <v>1717</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>36330</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>600</v>
+        <v>36330</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="2">
         <v>1717</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
         <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>600</v>
+        <v>36330</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>30406</v>
+        <v>600</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" s="2">
         <v>1717</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>30406</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>18094</v>
+        <v>30406</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M13" s="2">
         <v>1717</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>18094</v>
+        <v>30406</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>6900</v>
+        <v>18094</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>36</v>
@@ -1422,160 +1425,160 @@
         <v>44</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M14" s="2">
         <v>1717</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
         <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>6900</v>
+        <v>18094</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>50169</v>
+        <v>6900</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="2">
         <v>1717</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
-        <v>0.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>16723</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>128491</v>
+        <v>50169</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M16" s="2">
         <v>1717</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O16" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q16" s="2">
-        <v>42830.3333333333</v>
+        <v>16723</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>390</v>
+        <v>128491</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>46</v>
@@ -1584,86 +1587,139 @@
         <v>53</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M17" s="2">
         <v>1717</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O17" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P17" s="2">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q17" s="2">
-        <v>390</v>
+        <v>42830.3333333333</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>108</v>
+        <v>390</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>55</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M18" s="2">
         <v>1717</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O18" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" s="2">
         <v>1</v>
       </c>
       <c r="Q18" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2">
+        <v>108</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" s="2">
+        <v>31</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
         <v>108</v>
       </c>
     </row>
@@ -1674,59 +1730,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2">
         <v>88.14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="1">
-        <v>680000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="2">
-        <v>221.46</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H2" s="2">
+        <v>680000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="2">
+        <v>36</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>88.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2">
+        <v>221.46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="2">
         <v>750000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="2">
+        <v>37</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>221.46</v>
       </c>
     </row>
   </sheetData>
@@ -1735,6 +1898,384 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2362</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1030000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2967</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1">
+        <v>3343430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3343430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2">
+        <v>896597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2">
+        <v>334231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2">
+        <v>287527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>97</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>99</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>100</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>101</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>103</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1744,363 +2285,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1">
-        <v>3000</v>
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>103</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1120295</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2362</v>
+        <v>102</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>103</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1120295</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1030000</v>
+        <v>104</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2967</v>
+        <v>106</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1">
-        <v>3343430</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>63</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2">
-        <v>896597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>65</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="2">
-        <v>334231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>66</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="2">
-        <v>287527</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>67</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>97</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>99</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>100</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>101</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>102</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>103</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1120295</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>117</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/簡東明_2011-12-30_財產申報表_tmp3d8a1.xlsx
+++ b/legislator/property/output/normal/簡東明_2011-12-30_財產申報表_tmp3d8a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="113">
   <si>
     <t>name</t>
   </si>
@@ -216,31 +216,34 @@
     <t>(購買）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>Toyotacamry</t>
   </si>
   <si>
+    <t>Mazdaj14dna</t>
+  </si>
+  <si>
     <t>東明</t>
   </si>
   <si>
     <t>94年11月01日</t>
   </si>
   <si>
+    <t>100年08月20曰</t>
+  </si>
+  <si>
+    <t>93年09月15日</t>
+  </si>
+  <si>
     <t>(自用）</t>
   </si>
   <si>
+    <t>(寧用）</t>
+  </si>
+  <si>
     <t>1”000000(超過五年）</t>
-  </si>
-  <si>
-    <t>Mazdaj14dna</t>
-  </si>
-  <si>
-    <t>100年08月20曰</t>
-  </si>
-  <si>
-    <t>93年09月15日</t>
-  </si>
-  <si>
-    <t>(寧用）</t>
   </si>
   <si>
     <t>1050000(超過五年）</t>
@@ -1899,61 +1902,103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1">
-        <v>3000</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
         <v>3000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>74</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1717</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2">
         <v>2362</v>
@@ -1962,7 +2007,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>73</v>
@@ -1970,13 +2015,34 @@
       <c r="G3" s="2">
         <v>1030000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1717</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2">
         <v>2967</v>
@@ -1985,13 +2051,34 @@
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1717</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2009,13 +2096,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
@@ -2029,13 +2116,13 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>36</v>
@@ -2049,13 +2136,13 @@
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>36</v>
@@ -2069,13 +2156,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>36</v>
@@ -2089,13 +2176,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>36</v>
@@ -2109,13 +2196,13 @@
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>36</v>
@@ -2139,16 +2226,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2156,16 +2243,16 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2173,16 +2260,16 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2190,16 +2277,16 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2207,16 +2294,16 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2224,16 +2311,16 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2241,16 +2328,16 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2258,16 +2345,16 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2285,22 +2372,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1">
         <v>1120295</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2308,22 +2395,22 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2">
         <v>1120295</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2331,22 +2418,22 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/簡東明_2011-12-30_財產申報表_tmp3d8a1.xlsx
+++ b/legislator/property/output/normal/簡東明_2011-12-30_財產申報表_tmp3d8a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="115">
   <si>
     <t>name</t>
   </si>
@@ -216,6 +216,9 @@
     <t>(購買）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -247,6 +250,9 @@
   </si>
   <si>
     <t>1050000(超過五年）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行</t>
@@ -1815,7 +1821,7 @@
         <v>680000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>58</v>
@@ -1868,7 +1874,7 @@
         <v>750000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>58</v>
@@ -1913,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1954,25 +1960,25 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2">
         <v>3000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>58</v>
@@ -1998,7 +2004,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2">
         <v>2362</v>
@@ -2007,16 +2013,16 @@
         <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2">
         <v>1030000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>58</v>
@@ -2042,7 +2048,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2">
         <v>2967</v>
@@ -2051,16 +2057,16 @@
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>58</v>
@@ -2096,13 +2102,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
@@ -2116,13 +2122,13 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>36</v>
@@ -2136,13 +2142,13 @@
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>36</v>
@@ -2156,13 +2162,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>36</v>
@@ -2176,13 +2182,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>36</v>
@@ -2196,13 +2202,13 @@
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>36</v>
@@ -2226,16 +2232,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2243,16 +2249,16 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2260,16 +2266,16 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2277,16 +2283,16 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2294,16 +2300,16 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2311,16 +2317,16 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2328,16 +2334,16 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2345,16 +2351,16 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2372,22 +2378,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1">
         <v>1120295</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2395,22 +2401,22 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2">
         <v>1120295</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2418,22 +2424,22 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/簡東明_2011-12-30_財產申報表_tmp3d8a1.xlsx
+++ b/legislator/property/output/normal/簡東明_2011-12-30_財產申報表_tmp3d8a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -255,28 +255,40 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行</t>
   </si>
   <si>
+    <t>臺灣新光商業銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>屏東縣&amp;山地區農會</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>活崩存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣新光商業銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>屏東縣&amp;山地區農會</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>活崩存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -2094,13 +2106,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
@@ -2111,24 +2123,45 @@
         <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1">
-        <v>3343430</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>36</v>
@@ -2136,19 +2169,40 @@
       <c r="F2" s="2">
         <v>3343430</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1717</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>36</v>
@@ -2156,19 +2210,40 @@
       <c r="F3" s="2">
         <v>896597</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1717</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>36</v>
@@ -2176,19 +2251,40 @@
       <c r="F4" s="2">
         <v>334231</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1717</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>36</v>
@@ -2196,25 +2292,67 @@
       <c r="F5" s="2">
         <v>287527</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1717</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="2">
         <v>4200</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1717</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="2">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2232,16 +2370,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2249,16 +2387,16 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2266,16 +2404,16 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2283,16 +2421,16 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2300,16 +2438,16 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2317,16 +2455,16 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2334,16 +2472,16 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2351,16 +2489,16 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2378,22 +2516,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1">
         <v>1120295</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2401,22 +2539,22 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>1120295</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2424,22 +2562,22 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/簡東明_2011-12-30_財產申報表_tmp3d8a1.xlsx
+++ b/legislator/property/output/normal/簡東明_2011-12-30_財產申報表_tmp3d8a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -291,15 +291,12 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
-    <t>新康祥终身壽c</t>
-  </si>
-  <si>
-    <t>保險期間：89年12T月20曰至109年12月20曰(20年期）保險費缴付方式及金額：年缴43000元</t>
-  </si>
-  <si>
     <t>台灣人壽</t>
   </si>
   <si>
@@ -312,6 +309,9 @@
     <t>幸福人壽</t>
   </si>
   <si>
+    <t>新康祥终身壽險</t>
+  </si>
+  <si>
     <t>財星高照變額萬能壽險</t>
   </si>
   <si>
@@ -330,22 +330,13 @@
     <t>大吉大利终身壽險</t>
   </si>
   <si>
-    <t>保險期間：99年12月15日至109年12月15日(10年期）诨險費繳付方式及金額：年缴34000元</t>
-  </si>
-  <si>
-    <t>保險期間：98年12月10日至105年12月10日(7年期）保險費繳付方式及金額：年繳100561元</t>
-  </si>
-  <si>
-    <t>保險期間：90年8月23日至100年8月23日（10年期）保險費繳付方式及金額：年繳112900元</t>
-  </si>
-  <si>
-    <t>保險期間：80年1月24日至100年1月24曰（20年期）保險費缴付方式及金額：月繳4829元</t>
-  </si>
-  <si>
-    <t>保險期間：92年3月19曰至110年3月19日保險費繳付方式及金額：年繳246000元</t>
-  </si>
-  <si>
-    <t>保險期間：98年11月17™日至104年11月17曰(6年期）保險費繳付方式及金額：年繳111840元</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -360,22 +351,7 @@
     <t>購屋</t>
   </si>
   <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>y投資金額</t>
-  </si>
-  <si>
-    <t>取得（發生）時.間</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2362,49 +2338,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>103</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1717</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>97</v>
@@ -2415,13 +2427,31 @@
       <c r="E3" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1717</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>98</v>
@@ -2430,15 +2460,33 @@
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>103</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1717</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>99</v>
@@ -2447,15 +2495,33 @@
         <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>103</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1717</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>100</v>
@@ -2464,15 +2530,33 @@
         <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>103</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1717</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>101</v>
@@ -2481,15 +2565,33 @@
         <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>103</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1717</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>102</v>
@@ -2498,7 +2600,25 @@
         <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1717</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="2">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2508,76 +2628,95 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1120295</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>113</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2">
         <v>1120295</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1717</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="2">
         <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>117</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
